--- a/data/webApp.SEOR.crm/crm_exportfile_xlsx.xlsx
+++ b/data/webApp.SEOR.crm/crm_exportfile_xlsx.xlsx
@@ -1,79 +1,390 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reuel Sicat II\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04. Test Automation\03 RemoteRepo\05. SEOR\seor.app.testautomation\data\webApp.SEOR.crm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A08F6211-5B44-41BB-AB01-807FB1143974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7708CA51-A6B9-4CE2-8CDD-261397C8353B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32670" yWindow="2490" windowWidth="22770" windowHeight="12075"/>
+    <workbookView xWindow="29790" yWindow="2340" windowWidth="21180" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crm_exportfile" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="10" uniqueCount="10">
-  <si>
-    <t>Company Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="116">
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Phone #</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Uncategorized</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>http://test.com</t>
+  </si>
+  <si>
+    <t>asdasd, asd, asd, United States, 234234</t>
+  </si>
+  <si>
+    <t>Won</t>
+  </si>
+  <si>
+    <t>Company Test xlsx 1</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Phone #</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>https://hydepark.smilestudiochicago.com</t>
-  </si>
-  <si>
-    <t>Uncategorized</t>
+    <t>asdasdasd2@gmail.com</t>
+  </si>
+  <si>
+    <t>wentupqalr</t>
+  </si>
+  <si>
+    <t>orywstmssz</t>
+  </si>
+  <si>
+    <t>orywstmssz@gmail.com</t>
+  </si>
+  <si>
+    <t>wwnqprfzms</t>
+  </si>
+  <si>
+    <t>http://www.wwnqprfzms.com</t>
+  </si>
+  <si>
+    <t>urowpmdwho</t>
+  </si>
+  <si>
+    <t>350 S Grand Ave, Los Angeles, CA 90071, United States</t>
+  </si>
+  <si>
+    <t>nzerijocoe</t>
+  </si>
+  <si>
+    <t>7743662774</t>
+  </si>
+  <si>
+    <t>xgjwuzpjfa</t>
+  </si>
+  <si>
+    <t>fxhvecfymk</t>
+  </si>
+  <si>
+    <t>cgvucftirm</t>
+  </si>
+  <si>
+    <t>iclugvxfpg</t>
+  </si>
+  <si>
+    <t>iclugvxfpg@gmail.com</t>
+  </si>
+  <si>
+    <t>uucqnmdzgj</t>
+  </si>
+  <si>
+    <t>http://www.uucqnmdzgj.com</t>
+  </si>
+  <si>
+    <t>yiqloybkfl</t>
+  </si>
+  <si>
+    <t>yuasciysva</t>
+  </si>
+  <si>
+    <t>5313249569</t>
+  </si>
+  <si>
+    <t>vextsvbfvf</t>
+  </si>
+  <si>
+    <t>omvqztzfpt</t>
+  </si>
+  <si>
+    <t>klqxovioyl</t>
+  </si>
+  <si>
+    <t>klqxovioyl@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.klqxovioyl.com</t>
+  </si>
+  <si>
+    <t>8879893171</t>
+  </si>
+  <si>
+    <t>ketotujqiy</t>
+  </si>
+  <si>
+    <t>ketotujqiy@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.ketotujqiy.com</t>
+  </si>
+  <si>
+    <t>37710329572</t>
+  </si>
+  <si>
+    <t>zhnbfofovs</t>
+  </si>
+  <si>
+    <t>zhnbfofovs@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.zhnbfofovs.com</t>
+  </si>
+  <si>
+    <t>6658094938</t>
+  </si>
+  <si>
+    <t>lxsigceqnd</t>
+  </si>
+  <si>
+    <t>lxsigceqnd@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.lxsigceqnd.com</t>
+  </si>
+  <si>
+    <t>4525541729</t>
+  </si>
+  <si>
+    <t>chnngmntlh</t>
+  </si>
+  <si>
+    <t>chnngmntlh@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.chnngmntlh.com</t>
+  </si>
+  <si>
+    <t>8163333588</t>
+  </si>
+  <si>
+    <t>vmiomfsxyt</t>
+  </si>
+  <si>
+    <t>vmiomfsxyt@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.vmiomfsxyt.com</t>
+  </si>
+  <si>
+    <t>8232188804</t>
+  </si>
+  <si>
+    <t>upsykkkdqx</t>
+  </si>
+  <si>
+    <t>upsykkkdqx@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.upsykkkdqx.com</t>
+  </si>
+  <si>
+    <t>10587004765</t>
+  </si>
+  <si>
+    <t>hkcayjnsva</t>
+  </si>
+  <si>
+    <t>hkcayjnsva@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.hkcayjnsva.com</t>
+  </si>
+  <si>
+    <t>6563337746</t>
+  </si>
+  <si>
+    <t>polzxmjbct</t>
+  </si>
+  <si>
+    <t>polzxmjbct@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.polzxmjbct.com</t>
+  </si>
+  <si>
+    <t>9146735823</t>
+  </si>
+  <si>
+    <t>wovmrjfiun</t>
+  </si>
+  <si>
+    <t>wovmrjfiun@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.wovmrjfiun.com</t>
+  </si>
+  <si>
+    <t>4474146730</t>
+  </si>
+  <si>
+    <t>itmydxhqmo</t>
+  </si>
+  <si>
+    <t>itmydxhqmo@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.itmydxhqmo.com</t>
+  </si>
+  <si>
+    <t>(932) 257-8377</t>
+  </si>
+  <si>
+    <t>sybfuiamdd</t>
+  </si>
+  <si>
+    <t>sybfuiamdd@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.sybfuiamdd.com</t>
+  </si>
+  <si>
+    <t>(181) 862-4753</t>
   </si>
   <si>
     <t>Opportunity</t>
+  </si>
+  <si>
+    <t>xfqnpuvjqt</t>
+  </si>
+  <si>
+    <t>xfqnpuvjqt@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.xfqnpuvjqt.com</t>
+  </si>
+  <si>
+    <t>(541) 310-7878</t>
+  </si>
+  <si>
+    <t>vxtrighxmd</t>
+  </si>
+  <si>
+    <t>vxtrighxmd@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.vxtrighxmd.com</t>
+  </si>
+  <si>
+    <t>(336) 255-2429</t>
+  </si>
+  <si>
+    <t>hlotvjqnwn</t>
+  </si>
+  <si>
+    <t>hlotvjqnwn@gmail.com</t>
+  </si>
+  <si>
+    <t>https://didiern14.sg-host.com</t>
+  </si>
+  <si>
+    <t>(705) 259-6394</t>
+  </si>
+  <si>
+    <t>vbgnvkqeaw</t>
+  </si>
+  <si>
+    <t>vbgnvkqeawxlsx_company</t>
+  </si>
+  <si>
+    <t>vbgnvkqeaw@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.tolcservices.com</t>
+  </si>
+  <si>
+    <t>(288) 625-4940</t>
+  </si>
+  <si>
+    <t>exfdinivpixlsx_company</t>
+  </si>
+  <si>
+    <t>exfdinivpi@gmail.com</t>
+  </si>
+  <si>
+    <t>https://rarev.com</t>
+  </si>
+  <si>
+    <t>(835) 276-4901</t>
+  </si>
+  <si>
+    <t>bpviahlficxlsx_company</t>
+  </si>
+  <si>
+    <t>bpviahlfic@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.firstclassdentalcare.com</t>
+  </si>
+  <si>
+    <t>(861) 781-8854</t>
+  </si>
+  <si>
+    <t>dpigcthudh230830093043xlsx_company</t>
+  </si>
+  <si>
+    <t>dpigcthudh@gmail.com</t>
+  </si>
+  <si>
+    <t>https://divinetrendz.com/collections/sofa-covers</t>
+  </si>
+  <si>
+    <t>(834) 472-6668</t>
+  </si>
+  <si>
+    <t>gtkq_230830093707_xlsx</t>
+  </si>
+  <si>
+    <t>gtkq@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.christopherburtonllc.square.site</t>
+  </si>
+  <si>
+    <t>(183) 237-3390</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -87,20 +398,23 @@
   </fills>
   <borders count="1">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -117,7 +431,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -270,25 +584,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -296,25 +610,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -327,21 +641,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -355,7 +669,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -367,32 +681,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -412,60 +726,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
-    <col min="4" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="1" max="7" customWidth="true" width="34.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s" s="0">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
+      <c r="A2" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A5CE8A8F-A94B-48B2-BB66-A2EEC41DC04D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/data/webApp.SEOR.crm/crm_exportfile_xlsx.xlsx
+++ b/data/webApp.SEOR.crm/crm_exportfile_xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="124">
   <si>
     <t>Website</t>
   </si>
@@ -368,6 +368,30 @@
   </si>
   <si>
     <t>(183) 237-3390</t>
+  </si>
+  <si>
+    <t>glpu_230921102843_xlsx</t>
+  </si>
+  <si>
+    <t>glpu@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.zarnik.com</t>
+  </si>
+  <si>
+    <t>(880) 884-1256</t>
+  </si>
+  <si>
+    <t>wuxt_230921144044_xlsx</t>
+  </si>
+  <si>
+    <t>wuxt@gmail.com</t>
+  </si>
+  <si>
+    <t>https://raymooreservices.com</t>
+  </si>
+  <si>
+    <t>(472) 890-1929</t>
   </si>
 </sst>
 </file>
@@ -764,19 +788,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>5</v>
